--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/ARKANSAS_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/ARKANSAS_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D955"/>
+  <dimension ref="A1:D949"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -745,7 +745,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C28">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C33">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C45">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C48">
@@ -1322,7 +1322,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C72">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C77">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C80">
@@ -1530,7 +1530,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C88">
@@ -1691,7 +1691,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C100">
@@ -1826,7 +1826,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C110">
@@ -1852,7 +1852,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -1909,7 +1909,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C116">
@@ -2096,7 +2096,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C130">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C144">
@@ -2395,7 +2395,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C153">
@@ -2408,7 +2408,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C154">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C155">
@@ -2538,12 +2538,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C164">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C170">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C174">
@@ -2725,7 +2725,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C178">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C181">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C188">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C194">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C201">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C203">
@@ -3102,7 +3102,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C207">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C208">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C209">
@@ -3250,7 +3250,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C218">
@@ -3263,7 +3263,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C219">
@@ -3276,7 +3276,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C220">
@@ -3380,7 +3380,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C228">
@@ -3432,7 +3432,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C232">
@@ -3523,7 +3523,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C239">
@@ -3575,7 +3575,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C243">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C245">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C247">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C248">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C249">
@@ -3692,7 +3692,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C252">
@@ -3775,7 +3775,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C258">
@@ -3801,7 +3801,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C260">
@@ -3814,7 +3814,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C261">
@@ -3853,7 +3853,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C264">
@@ -3866,7 +3866,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C265">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C269">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C274">
@@ -4022,7 +4022,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C277">
@@ -4035,7 +4035,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C278">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C284">
@@ -4126,7 +4126,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C285">
@@ -4152,7 +4152,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C287">
@@ -4165,7 +4165,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C288">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C302">
@@ -4373,7 +4373,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C304">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C306">
@@ -4451,7 +4451,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C310">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C322">
@@ -4651,7 +4651,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C325">
@@ -4690,7 +4690,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C328">
@@ -4742,7 +4742,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C332">
@@ -4755,7 +4755,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C333">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C335">
@@ -4807,7 +4807,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C337">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C338">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C343">
@@ -4898,7 +4898,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C344">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C349">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C350">
@@ -5072,7 +5072,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C357">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C366">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C370">
@@ -5254,7 +5254,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C371">
@@ -5293,7 +5293,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C374">
@@ -5332,7 +5332,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C377">
@@ -5384,7 +5384,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C381">
@@ -5423,7 +5423,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C384">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C386">
@@ -5475,7 +5475,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C388">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C389">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C392">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C393">
@@ -5553,7 +5553,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C394">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C396">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C397">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C399">
@@ -5631,7 +5631,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C400">
@@ -5696,7 +5696,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C405">
@@ -5709,7 +5709,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C406">
@@ -5748,7 +5748,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C409">
@@ -6520,7 +6520,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C468">
@@ -6720,7 +6720,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C483">
@@ -6811,7 +6811,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C490">
@@ -6850,7 +6850,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C493">
@@ -6998,7 +6998,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C504">
@@ -7024,7 +7024,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C506">
@@ -7211,7 +7211,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C520">
@@ -7289,7 +7289,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C526">
@@ -7333,7 +7333,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C529">
@@ -7372,7 +7372,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C532">
@@ -7398,7 +7398,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C534">
@@ -7411,7 +7411,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C535">
@@ -7424,7 +7424,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C536">
@@ -7437,7 +7437,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C537">
@@ -7463,7 +7463,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C539">
@@ -7476,7 +7476,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C540">
@@ -7502,7 +7502,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C542">
@@ -7528,7 +7528,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C544">
@@ -7541,7 +7541,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C545">
@@ -7567,7 +7567,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C547">
@@ -7619,7 +7619,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C551">
@@ -8321,7 +8321,7 @@
     <row r="605">
       <c r="B605" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C605">
@@ -8334,7 +8334,7 @@
     <row r="606">
       <c r="B606" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C606">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C607">
@@ -8360,7 +8360,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C608">
@@ -8373,7 +8373,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C609">
@@ -8386,7 +8386,7 @@
     <row r="610">
       <c r="B610" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C610">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C611">
@@ -8534,7 +8534,7 @@
     <row r="621">
       <c r="B621" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C621">
@@ -8755,7 +8755,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C638">
@@ -8794,7 +8794,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C641">
@@ -8872,7 +8872,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C647">
@@ -8976,7 +8976,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C655">
@@ -9093,7 +9093,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C664">
@@ -9306,7 +9306,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C680">
@@ -9371,7 +9371,7 @@
     <row r="685">
       <c r="B685" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C685">
@@ -9384,7 +9384,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C686">
@@ -9423,7 +9423,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C689">
@@ -9449,7 +9449,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C691">
@@ -9563,7 +9563,7 @@
     <row r="699">
       <c r="B699" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C699">
@@ -9628,7 +9628,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C704">
@@ -9719,7 +9719,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C711">
@@ -9784,7 +9784,7 @@
     <row r="716">
       <c r="B716" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C716">
@@ -9849,7 +9849,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C721">
@@ -9940,7 +9940,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C728">
@@ -9979,7 +9979,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C731">
@@ -9992,7 +9992,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C732">
@@ -10005,7 +10005,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C733">
@@ -10018,7 +10018,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C734">
@@ -10031,7 +10031,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C735">
@@ -10857,7 +10857,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C797">
@@ -10953,7 +10953,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C804">
@@ -11044,7 +11044,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C811">
@@ -11335,7 +11335,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C833">
@@ -11348,7 +11348,7 @@
     <row r="834">
       <c r="B834" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C834">
@@ -11400,7 +11400,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C838">
@@ -11478,7 +11478,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C844">
@@ -11621,7 +11621,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C855">
@@ -11634,7 +11634,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C856">
@@ -11660,7 +11660,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C858">
@@ -11673,7 +11673,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C859">
@@ -11738,7 +11738,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C864">
@@ -11764,7 +11764,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C866">
@@ -11777,7 +11777,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C867">
@@ -11933,7 +11933,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C879">
@@ -12011,7 +12011,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C885">
@@ -12219,7 +12219,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C901">
@@ -12411,7 +12411,7 @@
     <row r="915">
       <c r="B915" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C915">
@@ -12424,7 +12424,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C916">
@@ -12515,7 +12515,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C923">
@@ -12593,7 +12593,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C929">
@@ -12723,7 +12723,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C939">
@@ -12736,7 +12736,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C940">
@@ -12775,7 +12775,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C943">
@@ -12861,41 +12861,6 @@
       </c>
       <c r="D949">
         <v>1</v>
-      </c>
-    </row>
-    <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="953">
-      <c r="A953" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="954">
-      <c r="A954" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="955">
-      <c r="A955" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>
